--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3012.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3012.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.170190660032864</v>
+        <v>1.21673309803009</v>
       </c>
       <c r="B1">
-        <v>2.39589657236951</v>
+        <v>1.577120661735535</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>2.111444711685181</v>
       </c>
       <c r="D1">
-        <v>2.316095410465879</v>
+        <v>6.12717866897583</v>
       </c>
       <c r="E1">
-        <v>1.201853380093671</v>
+        <v>3.026998519897461</v>
       </c>
     </row>
   </sheetData>
